--- a/Data/EC/NIT-9007594543.xlsx
+++ b/Data/EC/NIT-9007594543.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29231"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\NIYARAKY\MACROS AJUSTADAS\2- MACRO COMFENALCO CARTAGENA ACTUALIZACION\Estados De Cuenta\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3AA978A8-C2C5-4C44-874A-023C80111402}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{C299F8AC-5D1C-4C06-B2AD-297B982006B4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{FE660710-E30F-469D-AA91-965434D14E23}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{2A1602F3-DE0A-4ACD-895B-EBBFDA562A61}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="272" uniqueCount="77">
   <si>
     <t>Tipo Doc Trabajador</t>
   </si>
@@ -71,66 +71,72 @@
     <t>MARLON ANDRES BARRIOS ZUÑIGA</t>
   </si>
   <si>
+    <t>2312</t>
+  </si>
+  <si>
+    <t>2401</t>
+  </si>
+  <si>
+    <t>2402</t>
+  </si>
+  <si>
+    <t>2403</t>
+  </si>
+  <si>
+    <t>2404</t>
+  </si>
+  <si>
+    <t>2405</t>
+  </si>
+  <si>
+    <t>2406</t>
+  </si>
+  <si>
+    <t>2407</t>
+  </si>
+  <si>
+    <t>22810476</t>
+  </si>
+  <si>
+    <t>YOEMY PAYARES BELLO</t>
+  </si>
+  <si>
+    <t>2408</t>
+  </si>
+  <si>
+    <t>2409</t>
+  </si>
+  <si>
+    <t>2410</t>
+  </si>
+  <si>
+    <t>2411</t>
+  </si>
+  <si>
+    <t>2412</t>
+  </si>
+  <si>
+    <t>2501</t>
+  </si>
+  <si>
+    <t>2502</t>
+  </si>
+  <si>
+    <t>2503</t>
+  </si>
+  <si>
+    <t>2504</t>
+  </si>
+  <si>
+    <t>2505</t>
+  </si>
+  <si>
+    <t>2506</t>
+  </si>
+  <si>
     <t>2507</t>
   </si>
   <si>
-    <t>2506</t>
-  </si>
-  <si>
-    <t>2505</t>
-  </si>
-  <si>
-    <t>2504</t>
-  </si>
-  <si>
-    <t>2503</t>
-  </si>
-  <si>
-    <t>2502</t>
-  </si>
-  <si>
-    <t>2501</t>
-  </si>
-  <si>
-    <t>2412</t>
-  </si>
-  <si>
-    <t>2411</t>
-  </si>
-  <si>
-    <t>2410</t>
-  </si>
-  <si>
-    <t>2409</t>
-  </si>
-  <si>
-    <t>2408</t>
-  </si>
-  <si>
-    <t>2407</t>
-  </si>
-  <si>
-    <t>2406</t>
-  </si>
-  <si>
-    <t>2405</t>
-  </si>
-  <si>
-    <t>2404</t>
-  </si>
-  <si>
-    <t>2403</t>
-  </si>
-  <si>
-    <t>2402</t>
-  </si>
-  <si>
-    <t>2401</t>
-  </si>
-  <si>
-    <t>2312</t>
-  </si>
-  <si>
     <t>1047397280</t>
   </si>
   <si>
@@ -143,42 +149,18 @@
     <t>DIANA CAROLINA VILLAFAÑEZ AGUIRRE</t>
   </si>
   <si>
-    <t>33333380</t>
-  </si>
-  <si>
-    <t>FARIDES DEL CARMEN BELEÑO CASTILLO</t>
-  </si>
-  <si>
     <t>1143326853</t>
   </si>
   <si>
     <t>TERESA ASPRILLA PALMA</t>
   </si>
   <si>
-    <t>1047449803</t>
-  </si>
-  <si>
-    <t>KARINA MERLANO PLATA</t>
-  </si>
-  <si>
-    <t>1128060254</t>
-  </si>
-  <si>
-    <t>LUDYS CECILIA ROMERO SUAREZ</t>
-  </si>
-  <si>
     <t>3806333</t>
   </si>
   <si>
     <t>IVAN DARIO SUAREZ SOTOMAYOR</t>
   </si>
   <si>
-    <t>1015418670</t>
-  </si>
-  <si>
-    <t>INGRID JOHANNA DAVILA ESPEJO</t>
-  </si>
-  <si>
     <t>1143363865</t>
   </si>
   <si>
@@ -221,12 +203,6 @@
     <t>MARIA FERNANDA TOCA ORTIZ</t>
   </si>
   <si>
-    <t>22810476</t>
-  </si>
-  <si>
-    <t>YOEMY PAYARES BELLO</t>
-  </si>
-  <si>
     <t>1143407987</t>
   </si>
   <si>
@@ -237,6 +213,27 @@
   </si>
   <si>
     <t>LAURA VANESSA COGOLLO PADILLA</t>
+  </si>
+  <si>
+    <t>2508</t>
+  </si>
+  <si>
+    <t>45516959</t>
+  </si>
+  <si>
+    <t>INGRID MARIA INSIGNARES ARANA</t>
+  </si>
+  <si>
+    <t>1047413148</t>
+  </si>
+  <si>
+    <t>WENDY DEL CARMEN SOLANO HERNANDEZ</t>
+  </si>
+  <si>
+    <t>1143356423</t>
+  </si>
+  <si>
+    <t>ALEJANDRA ISABEL MERCADO PACHECO</t>
   </si>
   <si>
     <t>ESTADO DE CUENTA</t>
@@ -335,9 +332,159 @@
       <left style="thin">
         <color indexed="64"/>
       </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
       <right/>
       <top style="thin">
         <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
       </top>
       <bottom style="thin">
         <color indexed="64"/>
@@ -355,156 +502,6 @@
         <color indexed="64"/>
       </top>
       <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color indexed="64"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color indexed="64"/>
-      </left>
-      <right style="thin">
-        <color indexed="64"/>
-      </right>
-      <top style="thin">
-        <color indexed="64"/>
-      </top>
-      <bottom style="thin">
         <color auto="1"/>
       </bottom>
       <diagonal/>
@@ -550,23 +547,23 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="2" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="3" fillId="2" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -594,10 +591,10 @@
     <xf numFmtId="164" fontId="2" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -650,7 +647,7 @@
         <xdr:cNvPr id="3" name="Imagen 2">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{3258968E-B905-A25D-9931-158B7F24AFE9}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{0AB83AA8-DA91-01F9-EEFA-AB480FB9FF3B}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1001,8 +998,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA678947-53AC-4921-B325-9414A0319E5C}">
-  <dimension ref="B2:J80"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8E4F2082-24B9-41B5-83F3-35D602661892}">
+  <dimension ref="B2:J84"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="D2" sqref="D2:J5"/>
@@ -1013,7 +1010,7 @@
     <col min="1" max="1" width="3.6328125" customWidth="1"/>
     <col min="2" max="2" width="18.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.7265625" style="2" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="38.26953125" style="2" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="39.36328125" style="2" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="13.54296875" style="2" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="10.1796875" style="2" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="14.36328125" style="2" bestFit="1" customWidth="1"/>
@@ -1026,7 +1023,7 @@
       <c r="B2" s="3"/>
       <c r="C2" s="28"/>
       <c r="D2" s="29" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E2" s="29"/>
       <c r="F2" s="29"/>
@@ -1071,7 +1068,7 @@
     <row r="6" spans="2:10" ht="9" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B7" s="4" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C7" s="4"/>
       <c r="D7" s="27"/>
@@ -1103,12 +1100,12 @@
     <row r="10" spans="2:10" ht="6.75" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="11" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B11" s="4" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C11" s="4"/>
       <c r="D11" s="27"/>
       <c r="E11" s="7">
-        <v>3185594</v>
+        <v>3463934</v>
       </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
@@ -1119,17 +1116,17 @@
     <row r="12" spans="2:10" ht="4.5" customHeight="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="2:10" x14ac:dyDescent="0.35">
       <c r="B13" s="9" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="C13" s="5">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="5"/>
       <c r="E13" s="8" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="F13" s="5">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="G13" s="5"/>
       <c r="H13" s="5"/>
@@ -1156,13 +1153,13 @@
         <v>5</v>
       </c>
       <c r="H15" s="13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I15" s="13" t="s">
+        <v>71</v>
+      </c>
+      <c r="J15" s="14" t="s">
         <v>73</v>
-      </c>
-      <c r="I15" s="13" t="s">
-        <v>72</v>
-      </c>
-      <c r="J15" s="14" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="16" spans="2:10" x14ac:dyDescent="0.35">
@@ -1354,19 +1351,19 @@
         <v>8</v>
       </c>
       <c r="C24" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D24" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E24" s="16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="F24" s="18">
-        <v>50400</v>
+        <v>46400</v>
       </c>
       <c r="G24" s="18">
-        <v>1260000</v>
+        <v>1160000</v>
       </c>
       <c r="H24" s="19"/>
       <c r="I24" s="19"/>
@@ -1383,7 +1380,7 @@
         <v>10</v>
       </c>
       <c r="E25" s="16" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="F25" s="18">
         <v>50400</v>
@@ -1400,19 +1397,19 @@
         <v>8</v>
       </c>
       <c r="C26" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D26" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E26" s="16" t="s">
         <v>21</v>
       </c>
       <c r="F26" s="18">
-        <v>50400</v>
+        <v>46400</v>
       </c>
       <c r="G26" s="18">
-        <v>1260000</v>
+        <v>1160000</v>
       </c>
       <c r="H26" s="19"/>
       <c r="I26" s="19"/>
@@ -1446,19 +1443,19 @@
         <v>8</v>
       </c>
       <c r="C28" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D28" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E28" s="16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F28" s="18">
-        <v>50400</v>
+        <v>46400</v>
       </c>
       <c r="G28" s="18">
-        <v>1260000</v>
+        <v>1160000</v>
       </c>
       <c r="H28" s="19"/>
       <c r="I28" s="19"/>
@@ -1475,7 +1472,7 @@
         <v>10</v>
       </c>
       <c r="E29" s="16" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="F29" s="18">
         <v>50400</v>
@@ -1492,19 +1489,19 @@
         <v>8</v>
       </c>
       <c r="C30" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D30" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E30" s="16" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F30" s="18">
-        <v>50400</v>
+        <v>46400</v>
       </c>
       <c r="G30" s="18">
-        <v>1260000</v>
+        <v>1160000</v>
       </c>
       <c r="H30" s="19"/>
       <c r="I30" s="19"/>
@@ -1521,7 +1518,7 @@
         <v>10</v>
       </c>
       <c r="E31" s="16" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F31" s="18">
         <v>50400</v>
@@ -1538,19 +1535,19 @@
         <v>8</v>
       </c>
       <c r="C32" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D32" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E32" s="16" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="F32" s="18">
-        <v>50400</v>
+        <v>46400</v>
       </c>
       <c r="G32" s="18">
-        <v>1260000</v>
+        <v>1160000</v>
       </c>
       <c r="H32" s="19"/>
       <c r="I32" s="19"/>
@@ -1567,7 +1564,7 @@
         <v>10</v>
       </c>
       <c r="E33" s="16" t="s">
-        <v>28</v>
+        <v>25</v>
       </c>
       <c r="F33" s="18">
         <v>50400</v>
@@ -1584,19 +1581,19 @@
         <v>8</v>
       </c>
       <c r="C34" s="16" t="s">
-        <v>9</v>
+        <v>19</v>
       </c>
       <c r="D34" s="17" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
       <c r="E34" s="16" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="F34" s="18">
-        <v>50400</v>
+        <v>46400</v>
       </c>
       <c r="G34" s="18">
-        <v>1260000</v>
+        <v>1160000</v>
       </c>
       <c r="H34" s="19"/>
       <c r="I34" s="19"/>
@@ -1613,7 +1610,7 @@
         <v>10</v>
       </c>
       <c r="E35" s="16" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="F35" s="18">
         <v>50400</v>
@@ -1630,19 +1627,19 @@
         <v>8</v>
       </c>
       <c r="C36" s="16" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="D36" s="17" t="s">
-        <v>32</v>
+        <v>20</v>
       </c>
       <c r="E36" s="16" t="s">
-        <v>11</v>
+        <v>26</v>
       </c>
       <c r="F36" s="18">
-        <v>66560</v>
+        <v>46400</v>
       </c>
       <c r="G36" s="18">
-        <v>1664000</v>
+        <v>1160000</v>
       </c>
       <c r="H36" s="19"/>
       <c r="I36" s="19"/>
@@ -1653,19 +1650,19 @@
         <v>8</v>
       </c>
       <c r="C37" s="16" t="s">
-        <v>31</v>
+        <v>9</v>
       </c>
       <c r="D37" s="17" t="s">
-        <v>32</v>
+        <v>10</v>
       </c>
       <c r="E37" s="16" t="s">
-        <v>12</v>
+        <v>27</v>
       </c>
       <c r="F37" s="18">
-        <v>57400</v>
+        <v>50400</v>
       </c>
       <c r="G37" s="18">
-        <v>1664000</v>
+        <v>1260000</v>
       </c>
       <c r="H37" s="19"/>
       <c r="I37" s="19"/>
@@ -1676,19 +1673,19 @@
         <v>8</v>
       </c>
       <c r="C38" s="16" t="s">
-        <v>33</v>
+        <v>19</v>
       </c>
       <c r="D38" s="17" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="E38" s="16" t="s">
-        <v>11</v>
+        <v>27</v>
       </c>
       <c r="F38" s="18">
-        <v>96960</v>
+        <v>46400</v>
       </c>
       <c r="G38" s="18">
-        <v>2424000</v>
+        <v>1160000</v>
       </c>
       <c r="H38" s="19"/>
       <c r="I38" s="19"/>
@@ -1699,19 +1696,19 @@
         <v>8</v>
       </c>
       <c r="C39" s="16" t="s">
-        <v>35</v>
+        <v>9</v>
       </c>
       <c r="D39" s="17" t="s">
-        <v>36</v>
+        <v>10</v>
       </c>
       <c r="E39" s="16" t="s">
-        <v>12</v>
+        <v>28</v>
       </c>
       <c r="F39" s="18">
-        <v>56940</v>
+        <v>50400</v>
       </c>
       <c r="G39" s="18">
-        <v>1423500</v>
+        <v>1260000</v>
       </c>
       <c r="H39" s="19"/>
       <c r="I39" s="19"/>
@@ -1722,19 +1719,19 @@
         <v>8</v>
       </c>
       <c r="C40" s="16" t="s">
-        <v>35</v>
+        <v>19</v>
       </c>
       <c r="D40" s="17" t="s">
-        <v>36</v>
+        <v>20</v>
       </c>
       <c r="E40" s="16" t="s">
-        <v>13</v>
+        <v>28</v>
       </c>
       <c r="F40" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G40" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H40" s="19"/>
       <c r="I40" s="19"/>
@@ -1745,19 +1742,19 @@
         <v>8</v>
       </c>
       <c r="C41" s="16" t="s">
-        <v>37</v>
+        <v>9</v>
       </c>
       <c r="D41" s="17" t="s">
-        <v>38</v>
+        <v>10</v>
       </c>
       <c r="E41" s="16" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F41" s="18">
-        <v>56940</v>
+        <v>50400</v>
       </c>
       <c r="G41" s="18">
-        <v>1423500</v>
+        <v>1260000</v>
       </c>
       <c r="H41" s="19"/>
       <c r="I41" s="19"/>
@@ -1768,19 +1765,19 @@
         <v>8</v>
       </c>
       <c r="C42" s="16" t="s">
-        <v>39</v>
+        <v>19</v>
       </c>
       <c r="D42" s="17" t="s">
-        <v>40</v>
+        <v>20</v>
       </c>
       <c r="E42" s="16" t="s">
-        <v>11</v>
+        <v>29</v>
       </c>
       <c r="F42" s="18">
-        <v>57400</v>
+        <v>46400</v>
       </c>
       <c r="G42" s="18">
-        <v>1435000</v>
+        <v>1160000</v>
       </c>
       <c r="H42" s="19"/>
       <c r="I42" s="19"/>
@@ -1791,19 +1788,19 @@
         <v>8</v>
       </c>
       <c r="C43" s="16" t="s">
-        <v>39</v>
+        <v>9</v>
       </c>
       <c r="D43" s="17" t="s">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="E43" s="16" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F43" s="18">
-        <v>57400</v>
+        <v>50400</v>
       </c>
       <c r="G43" s="18">
-        <v>1435000</v>
+        <v>1260000</v>
       </c>
       <c r="H43" s="19"/>
       <c r="I43" s="19"/>
@@ -1814,19 +1811,19 @@
         <v>8</v>
       </c>
       <c r="C44" s="16" t="s">
-        <v>41</v>
+        <v>19</v>
       </c>
       <c r="D44" s="17" t="s">
-        <v>42</v>
+        <v>20</v>
       </c>
       <c r="E44" s="16" t="s">
-        <v>12</v>
+        <v>30</v>
       </c>
       <c r="F44" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G44" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H44" s="19"/>
       <c r="I44" s="19"/>
@@ -1837,19 +1834,19 @@
         <v>8</v>
       </c>
       <c r="C45" s="16" t="s">
-        <v>43</v>
+        <v>9</v>
       </c>
       <c r="D45" s="17" t="s">
-        <v>44</v>
+        <v>10</v>
       </c>
       <c r="E45" s="16" t="s">
-        <v>11</v>
+        <v>31</v>
       </c>
       <c r="F45" s="18">
-        <v>141221</v>
+        <v>50400</v>
       </c>
       <c r="G45" s="18">
-        <v>3530520</v>
+        <v>1260000</v>
       </c>
       <c r="H45" s="19"/>
       <c r="I45" s="19"/>
@@ -1860,19 +1857,19 @@
         <v>8</v>
       </c>
       <c r="C46" s="16" t="s">
-        <v>43</v>
+        <v>19</v>
       </c>
       <c r="D46" s="17" t="s">
-        <v>44</v>
+        <v>20</v>
       </c>
       <c r="E46" s="16" t="s">
-        <v>12</v>
+        <v>31</v>
       </c>
       <c r="F46" s="18">
-        <v>141221</v>
+        <v>46400</v>
       </c>
       <c r="G46" s="18">
-        <v>3530520</v>
+        <v>1160000</v>
       </c>
       <c r="H46" s="19"/>
       <c r="I46" s="19"/>
@@ -1883,19 +1880,19 @@
         <v>8</v>
       </c>
       <c r="C47" s="16" t="s">
-        <v>45</v>
+        <v>9</v>
       </c>
       <c r="D47" s="17" t="s">
-        <v>46</v>
+        <v>10</v>
       </c>
       <c r="E47" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F47" s="18">
-        <v>57400</v>
+        <v>50400</v>
       </c>
       <c r="G47" s="18">
-        <v>1435000</v>
+        <v>1260000</v>
       </c>
       <c r="H47" s="19"/>
       <c r="I47" s="19"/>
@@ -1906,19 +1903,19 @@
         <v>8</v>
       </c>
       <c r="C48" s="16" t="s">
-        <v>45</v>
+        <v>33</v>
       </c>
       <c r="D48" s="17" t="s">
-        <v>46</v>
+        <v>34</v>
       </c>
       <c r="E48" s="16" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F48" s="18">
-        <v>57400</v>
+        <v>66560</v>
       </c>
       <c r="G48" s="18">
-        <v>1435000</v>
+        <v>1664000</v>
       </c>
       <c r="H48" s="19"/>
       <c r="I48" s="19"/>
@@ -1929,19 +1926,19 @@
         <v>8</v>
       </c>
       <c r="C49" s="16" t="s">
-        <v>47</v>
+        <v>35</v>
       </c>
       <c r="D49" s="17" t="s">
-        <v>48</v>
+        <v>36</v>
       </c>
       <c r="E49" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F49" s="18">
-        <v>56940</v>
+        <v>96960</v>
       </c>
       <c r="G49" s="18">
-        <v>1423500</v>
+        <v>2424000</v>
       </c>
       <c r="H49" s="19"/>
       <c r="I49" s="19"/>
@@ -1952,13 +1949,13 @@
         <v>8</v>
       </c>
       <c r="C50" s="16" t="s">
-        <v>47</v>
+        <v>37</v>
       </c>
       <c r="D50" s="17" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="E50" s="16" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F50" s="18">
         <v>56940</v>
@@ -1975,19 +1972,19 @@
         <v>8</v>
       </c>
       <c r="C51" s="16" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D51" s="17" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="E51" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F51" s="18">
-        <v>56940</v>
+        <v>141221</v>
       </c>
       <c r="G51" s="18">
-        <v>1423500</v>
+        <v>3530520</v>
       </c>
       <c r="H51" s="19"/>
       <c r="I51" s="19"/>
@@ -1998,13 +1995,13 @@
         <v>8</v>
       </c>
       <c r="C52" s="16" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="D52" s="17" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="E52" s="16" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F52" s="18">
         <v>56940</v>
@@ -2021,19 +2018,19 @@
         <v>8</v>
       </c>
       <c r="C53" s="16" t="s">
-        <v>51</v>
+        <v>43</v>
       </c>
       <c r="D53" s="17" t="s">
-        <v>52</v>
+        <v>44</v>
       </c>
       <c r="E53" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F53" s="18">
-        <v>26786</v>
+        <v>56940</v>
       </c>
       <c r="G53" s="18">
-        <v>1435000</v>
+        <v>1423500</v>
       </c>
       <c r="H53" s="19"/>
       <c r="I53" s="19"/>
@@ -2044,19 +2041,19 @@
         <v>8</v>
       </c>
       <c r="C54" s="16" t="s">
-        <v>53</v>
+        <v>45</v>
       </c>
       <c r="D54" s="17" t="s">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="E54" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F54" s="18">
-        <v>75880</v>
+        <v>26786</v>
       </c>
       <c r="G54" s="18">
-        <v>1897000</v>
+        <v>1435000</v>
       </c>
       <c r="H54" s="19"/>
       <c r="I54" s="19"/>
@@ -2067,19 +2064,19 @@
         <v>8</v>
       </c>
       <c r="C55" s="16" t="s">
-        <v>55</v>
+        <v>47</v>
       </c>
       <c r="D55" s="17" t="s">
-        <v>56</v>
+        <v>48</v>
       </c>
       <c r="E55" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F55" s="18">
-        <v>56940</v>
+        <v>75880</v>
       </c>
       <c r="G55" s="18">
-        <v>1423500</v>
+        <v>1897000</v>
       </c>
       <c r="H55" s="19"/>
       <c r="I55" s="19"/>
@@ -2090,13 +2087,13 @@
         <v>8</v>
       </c>
       <c r="C56" s="16" t="s">
-        <v>55</v>
+        <v>49</v>
       </c>
       <c r="D56" s="17" t="s">
-        <v>56</v>
+        <v>50</v>
       </c>
       <c r="E56" s="16" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F56" s="18">
         <v>56940</v>
@@ -2113,13 +2110,13 @@
         <v>8</v>
       </c>
       <c r="C57" s="16" t="s">
-        <v>57</v>
+        <v>51</v>
       </c>
       <c r="D57" s="17" t="s">
-        <v>58</v>
+        <v>52</v>
       </c>
       <c r="E57" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F57" s="18">
         <v>5740</v>
@@ -2136,13 +2133,13 @@
         <v>8</v>
       </c>
       <c r="C58" s="16" t="s">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="D58" s="17" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="E58" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F58" s="18">
         <v>56940</v>
@@ -2159,19 +2156,19 @@
         <v>8</v>
       </c>
       <c r="C59" s="16" t="s">
-        <v>59</v>
+        <v>19</v>
       </c>
       <c r="D59" s="17" t="s">
-        <v>60</v>
+        <v>20</v>
       </c>
       <c r="E59" s="16" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F59" s="18">
-        <v>56940</v>
+        <v>46400</v>
       </c>
       <c r="G59" s="18">
-        <v>1423500</v>
+        <v>1160000</v>
       </c>
       <c r="H59" s="19"/>
       <c r="I59" s="19"/>
@@ -2182,19 +2179,19 @@
         <v>8</v>
       </c>
       <c r="C60" s="16" t="s">
-        <v>61</v>
+        <v>55</v>
       </c>
       <c r="D60" s="17" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="E60" s="16" t="s">
-        <v>11</v>
+        <v>32</v>
       </c>
       <c r="F60" s="18">
-        <v>46400</v>
+        <v>44006</v>
       </c>
       <c r="G60" s="18">
-        <v>1160000</v>
+        <v>1435000</v>
       </c>
       <c r="H60" s="19"/>
       <c r="I60" s="19"/>
@@ -2205,19 +2202,19 @@
         <v>8</v>
       </c>
       <c r="C61" s="16" t="s">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="D61" s="17" t="s">
-        <v>62</v>
+        <v>58</v>
       </c>
       <c r="E61" s="16" t="s">
-        <v>12</v>
+        <v>32</v>
       </c>
       <c r="F61" s="18">
-        <v>46400</v>
+        <v>5740</v>
       </c>
       <c r="G61" s="18">
-        <v>1160000</v>
+        <v>1435000</v>
       </c>
       <c r="H61" s="19"/>
       <c r="I61" s="19"/>
@@ -2228,19 +2225,19 @@
         <v>8</v>
       </c>
       <c r="C62" s="16" t="s">
-        <v>61</v>
+        <v>9</v>
       </c>
       <c r="D62" s="17" t="s">
-        <v>62</v>
+        <v>10</v>
       </c>
       <c r="E62" s="16" t="s">
-        <v>13</v>
+        <v>59</v>
       </c>
       <c r="F62" s="18">
-        <v>46400</v>
+        <v>50400</v>
       </c>
       <c r="G62" s="18">
-        <v>1160000</v>
+        <v>1260000</v>
       </c>
       <c r="H62" s="19"/>
       <c r="I62" s="19"/>
@@ -2251,19 +2248,19 @@
         <v>8</v>
       </c>
       <c r="C63" s="16" t="s">
-        <v>61</v>
+        <v>33</v>
       </c>
       <c r="D63" s="17" t="s">
-        <v>62</v>
+        <v>34</v>
       </c>
       <c r="E63" s="16" t="s">
-        <v>14</v>
+        <v>59</v>
       </c>
       <c r="F63" s="18">
-        <v>46400</v>
+        <v>66560</v>
       </c>
       <c r="G63" s="18">
-        <v>1160000</v>
+        <v>1664000</v>
       </c>
       <c r="H63" s="19"/>
       <c r="I63" s="19"/>
@@ -2274,19 +2271,19 @@
         <v>8</v>
       </c>
       <c r="C64" s="16" t="s">
-        <v>61</v>
+        <v>35</v>
       </c>
       <c r="D64" s="17" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="E64" s="16" t="s">
-        <v>15</v>
+        <v>59</v>
       </c>
       <c r="F64" s="18">
-        <v>46400</v>
+        <v>96960</v>
       </c>
       <c r="G64" s="18">
-        <v>1160000</v>
+        <v>2424000</v>
       </c>
       <c r="H64" s="19"/>
       <c r="I64" s="19"/>
@@ -2297,19 +2294,19 @@
         <v>8</v>
       </c>
       <c r="C65" s="16" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="D65" s="17" t="s">
-        <v>62</v>
+        <v>38</v>
       </c>
       <c r="E65" s="16" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="F65" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G65" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H65" s="19"/>
       <c r="I65" s="19"/>
@@ -2320,19 +2317,19 @@
         <v>8</v>
       </c>
       <c r="C66" s="16" t="s">
-        <v>61</v>
+        <v>39</v>
       </c>
       <c r="D66" s="17" t="s">
-        <v>62</v>
+        <v>40</v>
       </c>
       <c r="E66" s="16" t="s">
-        <v>17</v>
+        <v>59</v>
       </c>
       <c r="F66" s="18">
-        <v>46400</v>
+        <v>141221</v>
       </c>
       <c r="G66" s="18">
-        <v>1160000</v>
+        <v>3530520</v>
       </c>
       <c r="H66" s="19"/>
       <c r="I66" s="19"/>
@@ -2343,19 +2340,19 @@
         <v>8</v>
       </c>
       <c r="C67" s="16" t="s">
-        <v>61</v>
+        <v>41</v>
       </c>
       <c r="D67" s="17" t="s">
-        <v>62</v>
+        <v>42</v>
       </c>
       <c r="E67" s="16" t="s">
-        <v>18</v>
+        <v>59</v>
       </c>
       <c r="F67" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G67" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H67" s="19"/>
       <c r="I67" s="19"/>
@@ -2366,19 +2363,19 @@
         <v>8</v>
       </c>
       <c r="C68" s="16" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
       <c r="D68" s="17" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
       <c r="E68" s="16" t="s">
-        <v>19</v>
+        <v>59</v>
       </c>
       <c r="F68" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G68" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H68" s="19"/>
       <c r="I68" s="19"/>
@@ -2389,19 +2386,19 @@
         <v>8</v>
       </c>
       <c r="C69" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="D69" s="17" t="s">
         <v>61</v>
       </c>
-      <c r="D69" s="17" t="s">
-        <v>62</v>
-      </c>
       <c r="E69" s="16" t="s">
-        <v>20</v>
+        <v>59</v>
       </c>
       <c r="F69" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G69" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H69" s="19"/>
       <c r="I69" s="19"/>
@@ -2412,19 +2409,19 @@
         <v>8</v>
       </c>
       <c r="C70" s="16" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D70" s="17" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="E70" s="16" t="s">
-        <v>21</v>
+        <v>59</v>
       </c>
       <c r="F70" s="18">
-        <v>46400</v>
+        <v>75880</v>
       </c>
       <c r="G70" s="18">
-        <v>1160000</v>
+        <v>1897000</v>
       </c>
       <c r="H70" s="19"/>
       <c r="I70" s="19"/>
@@ -2435,19 +2432,19 @@
         <v>8</v>
       </c>
       <c r="C71" s="16" t="s">
-        <v>61</v>
+        <v>49</v>
       </c>
       <c r="D71" s="17" t="s">
-        <v>62</v>
+        <v>50</v>
       </c>
       <c r="E71" s="16" t="s">
-        <v>22</v>
+        <v>59</v>
       </c>
       <c r="F71" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G71" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H71" s="19"/>
       <c r="I71" s="19"/>
@@ -2458,19 +2455,19 @@
         <v>8</v>
       </c>
       <c r="C72" s="16" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="D72" s="17" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="E72" s="16" t="s">
-        <v>23</v>
+        <v>59</v>
       </c>
       <c r="F72" s="18">
-        <v>46400</v>
+        <v>56940</v>
       </c>
       <c r="G72" s="18">
-        <v>1160000</v>
+        <v>1423500</v>
       </c>
       <c r="H72" s="19"/>
       <c r="I72" s="19"/>
@@ -2481,75 +2478,167 @@
         <v>8</v>
       </c>
       <c r="C73" s="16" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="D73" s="17" t="s">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="E73" s="16" t="s">
-        <v>11</v>
+        <v>59</v>
       </c>
       <c r="F73" s="18">
-        <v>44006</v>
+        <v>56940</v>
       </c>
       <c r="G73" s="18">
-        <v>1435000</v>
+        <v>1423500</v>
       </c>
       <c r="H73" s="19"/>
       <c r="I73" s="19"/>
       <c r="J73" s="20"/>
     </row>
     <row r="74" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B74" s="21" t="s">
-        <v>8</v>
-      </c>
-      <c r="C74" s="22" t="s">
-        <v>65</v>
-      </c>
-      <c r="D74" s="23" t="s">
-        <v>66</v>
-      </c>
-      <c r="E74" s="22" t="s">
-        <v>11</v>
-      </c>
-      <c r="F74" s="24">
-        <v>5740</v>
-      </c>
-      <c r="G74" s="24">
+      <c r="B74" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C74" s="16" t="s">
+        <v>51</v>
+      </c>
+      <c r="D74" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="E74" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F74" s="18">
+        <v>57400</v>
+      </c>
+      <c r="G74" s="18">
         <v>1435000</v>
       </c>
-      <c r="H74" s="25"/>
-      <c r="I74" s="25"/>
-      <c r="J74" s="26"/>
-    </row>
-    <row r="79" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B79" s="32" t="s">
+      <c r="H74" s="19"/>
+      <c r="I74" s="19"/>
+      <c r="J74" s="20"/>
+    </row>
+    <row r="75" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B75" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C75" s="16" t="s">
+        <v>53</v>
+      </c>
+      <c r="D75" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="E75" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F75" s="18">
+        <v>56940</v>
+      </c>
+      <c r="G75" s="18">
+        <v>1423500</v>
+      </c>
+      <c r="H75" s="19"/>
+      <c r="I75" s="19"/>
+      <c r="J75" s="20"/>
+    </row>
+    <row r="76" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B76" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C76" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="D76" s="17" t="s">
+        <v>20</v>
+      </c>
+      <c r="E76" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F76" s="18">
+        <v>46400</v>
+      </c>
+      <c r="G76" s="18">
+        <v>1160000</v>
+      </c>
+      <c r="H76" s="19"/>
+      <c r="I76" s="19"/>
+      <c r="J76" s="20"/>
+    </row>
+    <row r="77" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B77" s="15" t="s">
+        <v>8</v>
+      </c>
+      <c r="C77" s="16" t="s">
+        <v>55</v>
+      </c>
+      <c r="D77" s="17" t="s">
+        <v>56</v>
+      </c>
+      <c r="E77" s="16" t="s">
+        <v>59</v>
+      </c>
+      <c r="F77" s="18">
+        <v>57400</v>
+      </c>
+      <c r="G77" s="18">
+        <v>1435000</v>
+      </c>
+      <c r="H77" s="19"/>
+      <c r="I77" s="19"/>
+      <c r="J77" s="20"/>
+    </row>
+    <row r="78" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B78" s="21" t="s">
+        <v>8</v>
+      </c>
+      <c r="C78" s="22" t="s">
+        <v>57</v>
+      </c>
+      <c r="D78" s="23" t="s">
+        <v>58</v>
+      </c>
+      <c r="E78" s="22" t="s">
+        <v>59</v>
+      </c>
+      <c r="F78" s="24">
+        <v>57400</v>
+      </c>
+      <c r="G78" s="24">
+        <v>1435000</v>
+      </c>
+      <c r="H78" s="25"/>
+      <c r="I78" s="25"/>
+      <c r="J78" s="26"/>
+    </row>
+    <row r="83" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B83" s="32" t="s">
+        <v>75</v>
+      </c>
+      <c r="C83" s="32"/>
+      <c r="H83" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="I83" s="1"/>
+      <c r="J83" s="1"/>
+    </row>
+    <row r="84" spans="2:10" x14ac:dyDescent="0.35">
+      <c r="B84" s="32" t="s">
+        <v>74</v>
+      </c>
+      <c r="C84" s="32"/>
+      <c r="H84" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="C79" s="32"/>
-      <c r="H79" s="1" t="s">
-        <v>76</v>
-      </c>
-      <c r="I79" s="1"/>
-      <c r="J79" s="1"/>
-    </row>
-    <row r="80" spans="2:10" x14ac:dyDescent="0.35">
-      <c r="B80" s="32" t="s">
-        <v>75</v>
-      </c>
-      <c r="C80" s="32"/>
-      <c r="H80" s="1" t="s">
-        <v>77</v>
-      </c>
-      <c r="I80" s="1"/>
-      <c r="J80" s="1"/>
+      <c r="I84" s="1"/>
+      <c r="J84" s="1"/>
     </row>
   </sheetData>
   <mergeCells count="14">
-    <mergeCell ref="B80:C80"/>
-    <mergeCell ref="B79:C79"/>
-    <mergeCell ref="H80:J80"/>
-    <mergeCell ref="H79:J79"/>
+    <mergeCell ref="B84:C84"/>
+    <mergeCell ref="B83:C83"/>
+    <mergeCell ref="H84:J84"/>
+    <mergeCell ref="H83:J83"/>
     <mergeCell ref="B11:D11"/>
     <mergeCell ref="C13:D13"/>
     <mergeCell ref="D2:J5"/>
